--- a/data/pca/factorExposure/factorExposure_2011-11-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01046192608044588</v>
+        <v>0.01264130301457801</v>
       </c>
       <c r="C2">
-        <v>-0.03208874393059122</v>
+        <v>-0.02216397065125255</v>
       </c>
       <c r="D2">
-        <v>0.01690805480972665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02333762111284001</v>
+      </c>
+      <c r="E2">
+        <v>-0.01029439397250373</v>
+      </c>
+      <c r="F2">
+        <v>0.02997442361937505</v>
+      </c>
+      <c r="G2">
+        <v>0.0008083846267535169</v>
+      </c>
+      <c r="H2">
+        <v>-0.02424401538156406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07287569267175499</v>
+        <v>0.08744550914530554</v>
       </c>
       <c r="C4">
-        <v>-0.0618680415612617</v>
+        <v>-0.02589950634821149</v>
       </c>
       <c r="D4">
-        <v>0.07052359328426738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07808945304248069</v>
+      </c>
+      <c r="E4">
+        <v>-0.0109685207156934</v>
+      </c>
+      <c r="F4">
+        <v>0.04157170356046205</v>
+      </c>
+      <c r="G4">
+        <v>0.0180040284153189</v>
+      </c>
+      <c r="H4">
+        <v>0.03636546209385344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1080486216101266</v>
+        <v>0.1219025882850055</v>
       </c>
       <c r="C6">
-        <v>-0.06180519385250225</v>
+        <v>-0.04088928939620353</v>
       </c>
       <c r="D6">
-        <v>0.000805185526903566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01851789918527041</v>
+      </c>
+      <c r="E6">
+        <v>0.02118745786974197</v>
+      </c>
+      <c r="F6">
+        <v>0.03701408375473927</v>
+      </c>
+      <c r="G6">
+        <v>0.03859821669208659</v>
+      </c>
+      <c r="H6">
+        <v>-0.1591808226169934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05529284887737945</v>
+        <v>0.06498053430807481</v>
       </c>
       <c r="C7">
-        <v>-0.04007423794179467</v>
+        <v>-0.01166549868242978</v>
       </c>
       <c r="D7">
-        <v>0.02998330030405465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05578648829866664</v>
+      </c>
+      <c r="E7">
+        <v>-0.02603783584788867</v>
+      </c>
+      <c r="F7">
+        <v>0.04572531298172439</v>
+      </c>
+      <c r="G7">
+        <v>-0.02529526311275176</v>
+      </c>
+      <c r="H7">
+        <v>0.02674673189749213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0407843663062003</v>
+        <v>0.04422743743985038</v>
       </c>
       <c r="C8">
-        <v>-0.01946847143202158</v>
+        <v>-0.006042458950084408</v>
       </c>
       <c r="D8">
-        <v>0.06230802119187439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03099453393503323</v>
+      </c>
+      <c r="E8">
+        <v>-0.007085011038281616</v>
+      </c>
+      <c r="F8">
+        <v>0.07343710172245022</v>
+      </c>
+      <c r="G8">
+        <v>0.0848971141094241</v>
+      </c>
+      <c r="H8">
+        <v>-0.007018709727111598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07065106944417381</v>
+        <v>0.08037373916264508</v>
       </c>
       <c r="C9">
-        <v>-0.0491024125540301</v>
+        <v>-0.0153583474552949</v>
       </c>
       <c r="D9">
-        <v>0.06537095948244237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06896084017740484</v>
+      </c>
+      <c r="E9">
+        <v>-0.02432548943455557</v>
+      </c>
+      <c r="F9">
+        <v>0.03658748903586567</v>
+      </c>
+      <c r="G9">
+        <v>0.02884127369987642</v>
+      </c>
+      <c r="H9">
+        <v>0.04124052917609954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0229984702848398</v>
+        <v>0.04888407940297318</v>
       </c>
       <c r="C10">
-        <v>-0.01506038102626693</v>
+        <v>-0.09688179752545699</v>
       </c>
       <c r="D10">
-        <v>-0.1720400914346868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1668805370907944</v>
+      </c>
+      <c r="E10">
+        <v>-0.02817329771617106</v>
+      </c>
+      <c r="F10">
+        <v>0.06061544394603328</v>
+      </c>
+      <c r="G10">
+        <v>-0.03409369940801744</v>
+      </c>
+      <c r="H10">
+        <v>-0.03640132091426419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06641818451991585</v>
+        <v>0.07315512638061507</v>
       </c>
       <c r="C11">
-        <v>-0.04385083935446948</v>
+        <v>-0.007844927070700058</v>
       </c>
       <c r="D11">
-        <v>0.05683101631554333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06421284137890486</v>
+      </c>
+      <c r="E11">
+        <v>-0.002322738297313959</v>
+      </c>
+      <c r="F11">
+        <v>0.0347944400694493</v>
+      </c>
+      <c r="G11">
+        <v>0.04299263855006172</v>
+      </c>
+      <c r="H11">
+        <v>0.06349785083278849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05707086458687755</v>
+        <v>0.0666024591600728</v>
       </c>
       <c r="C12">
-        <v>-0.05446665429261065</v>
+        <v>-0.02119826813025657</v>
       </c>
       <c r="D12">
-        <v>0.0450433713836345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05692281841392484</v>
+      </c>
+      <c r="E12">
+        <v>-0.009668774479949363</v>
+      </c>
+      <c r="F12">
+        <v>0.02419493332146647</v>
+      </c>
+      <c r="G12">
+        <v>0.0198183572993325</v>
+      </c>
+      <c r="H12">
+        <v>0.02925255400620387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06883994879126061</v>
+        <v>0.06978583140449775</v>
       </c>
       <c r="C13">
-        <v>-0.052082645195951</v>
+        <v>-0.01998645274527968</v>
       </c>
       <c r="D13">
-        <v>0.03458072838029638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04528979237815029</v>
+      </c>
+      <c r="E13">
+        <v>-0.00687898842529672</v>
+      </c>
+      <c r="F13">
+        <v>0.02148947145187926</v>
+      </c>
+      <c r="G13">
+        <v>0.02160925546572892</v>
+      </c>
+      <c r="H13">
+        <v>0.05046795036355627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02942972117840625</v>
+        <v>0.03970702274498047</v>
       </c>
       <c r="C14">
-        <v>-0.03032297871842577</v>
+        <v>-0.02476297181353271</v>
       </c>
       <c r="D14">
-        <v>-0.007497595942606384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01810167798341233</v>
+      </c>
+      <c r="E14">
+        <v>-0.02799944325532982</v>
+      </c>
+      <c r="F14">
+        <v>0.01561640177723641</v>
+      </c>
+      <c r="G14">
+        <v>0.01483266194176267</v>
+      </c>
+      <c r="H14">
+        <v>0.06646760956828533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04148825613836427</v>
+        <v>0.04029196492987492</v>
       </c>
       <c r="C15">
-        <v>-0.01522142353000893</v>
+        <v>-0.002363835689569293</v>
       </c>
       <c r="D15">
-        <v>0.02077984885734011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01146982218285707</v>
+      </c>
+      <c r="E15">
+        <v>-0.03497182206637284</v>
+      </c>
+      <c r="F15">
+        <v>0.003336554047200322</v>
+      </c>
+      <c r="G15">
+        <v>0.02956327131883403</v>
+      </c>
+      <c r="H15">
+        <v>0.02643388593241801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05639462892518936</v>
+        <v>0.06929463660031075</v>
       </c>
       <c r="C16">
-        <v>-0.04240809122821133</v>
+        <v>-0.01176481549500182</v>
       </c>
       <c r="D16">
-        <v>0.05541976888153866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0655811782256065</v>
+      </c>
+      <c r="E16">
+        <v>-0.006059625433939375</v>
+      </c>
+      <c r="F16">
+        <v>0.03046622655066237</v>
+      </c>
+      <c r="G16">
+        <v>0.01778161691752015</v>
+      </c>
+      <c r="H16">
+        <v>0.04864723234223808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06355154068752268</v>
+        <v>0.06344099696360911</v>
       </c>
       <c r="C20">
-        <v>-0.03124597059748709</v>
+        <v>-0.0007189982480693384</v>
       </c>
       <c r="D20">
-        <v>0.04438821234815504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04178639733995282</v>
+      </c>
+      <c r="E20">
+        <v>-0.00710832300788151</v>
+      </c>
+      <c r="F20">
+        <v>0.02477652476349973</v>
+      </c>
+      <c r="G20">
+        <v>0.01709465093000927</v>
+      </c>
+      <c r="H20">
+        <v>0.04528281152987283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03266558298874025</v>
+        <v>0.02841173283031391</v>
       </c>
       <c r="C21">
-        <v>-0.01074615231497634</v>
+        <v>0.006189363390633371</v>
       </c>
       <c r="D21">
-        <v>0.01132478823709049</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01956175112433038</v>
+      </c>
+      <c r="E21">
+        <v>-0.04196120210338303</v>
+      </c>
+      <c r="F21">
+        <v>-0.0136939320679185</v>
+      </c>
+      <c r="G21">
+        <v>0.007349621147647673</v>
+      </c>
+      <c r="H21">
+        <v>-0.04130761960172687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08347247283195604</v>
+        <v>0.07466246218250931</v>
       </c>
       <c r="C22">
-        <v>-0.08399478085307914</v>
+        <v>-0.02490852465568682</v>
       </c>
       <c r="D22">
-        <v>0.1294412198394455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1018867353624121</v>
+      </c>
+      <c r="E22">
+        <v>-0.6048721985489922</v>
+      </c>
+      <c r="F22">
+        <v>-0.03609922284763589</v>
+      </c>
+      <c r="G22">
+        <v>-0.1817485426692852</v>
+      </c>
+      <c r="H22">
+        <v>-0.1425717074509671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08458282104501331</v>
+        <v>0.07561412941354295</v>
       </c>
       <c r="C23">
-        <v>-0.08247631589537267</v>
+        <v>-0.02324098238812709</v>
       </c>
       <c r="D23">
-        <v>0.1308156833679044</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1026003352499289</v>
+      </c>
+      <c r="E23">
+        <v>-0.607178080399341</v>
+      </c>
+      <c r="F23">
+        <v>-0.03533952457934166</v>
+      </c>
+      <c r="G23">
+        <v>-0.176421903261079</v>
+      </c>
+      <c r="H23">
+        <v>-0.1382547111188428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07225022220964337</v>
+        <v>0.07893587096979524</v>
       </c>
       <c r="C24">
-        <v>-0.05388365191073721</v>
+        <v>-0.01589921182598744</v>
       </c>
       <c r="D24">
-        <v>0.05912748802872534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06529251077795156</v>
+      </c>
+      <c r="E24">
+        <v>-0.01381962954640289</v>
+      </c>
+      <c r="F24">
+        <v>0.03690532169783428</v>
+      </c>
+      <c r="G24">
+        <v>0.03652217667311408</v>
+      </c>
+      <c r="H24">
+        <v>0.02951199267063915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0712230890591925</v>
+        <v>0.07795273769503198</v>
       </c>
       <c r="C25">
-        <v>-0.05640332224160492</v>
+        <v>-0.02138309632312724</v>
       </c>
       <c r="D25">
-        <v>0.05666757687419593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05873333775508691</v>
+      </c>
+      <c r="E25">
+        <v>-0.01681823275901916</v>
+      </c>
+      <c r="F25">
+        <v>0.03397889374399175</v>
+      </c>
+      <c r="G25">
+        <v>0.04169144062291496</v>
+      </c>
+      <c r="H25">
+        <v>0.04219441845720912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04403262374168858</v>
+        <v>0.04466751192479706</v>
       </c>
       <c r="C26">
-        <v>-0.01552509338717891</v>
+        <v>0.0002154123856623384</v>
       </c>
       <c r="D26">
-        <v>0.01068281516466297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01949358751114634</v>
+      </c>
+      <c r="E26">
+        <v>-0.0453073400791646</v>
+      </c>
+      <c r="F26">
+        <v>0.02768847953523191</v>
+      </c>
+      <c r="G26">
+        <v>0.02654465026193173</v>
+      </c>
+      <c r="H26">
+        <v>0.04457683168499386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03755339344683093</v>
+        <v>0.06834337418477693</v>
       </c>
       <c r="C28">
-        <v>-0.05003645275771215</v>
+        <v>-0.1660530020813084</v>
       </c>
       <c r="D28">
-        <v>-0.3136761053245326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2735340324901466</v>
+      </c>
+      <c r="E28">
+        <v>-0.03326667000534696</v>
+      </c>
+      <c r="F28">
+        <v>0.05394231123595314</v>
+      </c>
+      <c r="G28">
+        <v>0.02585658761348318</v>
+      </c>
+      <c r="H28">
+        <v>-0.05871750398427678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04379380129440203</v>
+        <v>0.0482702302611877</v>
       </c>
       <c r="C29">
-        <v>-0.04146024097372605</v>
+        <v>-0.02812901371291249</v>
       </c>
       <c r="D29">
-        <v>-0.002964870016988726</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01959777360759615</v>
+      </c>
+      <c r="E29">
+        <v>-0.05327349147672133</v>
+      </c>
+      <c r="F29">
+        <v>0.0192109610587495</v>
+      </c>
+      <c r="G29">
+        <v>0.002617702636488614</v>
+      </c>
+      <c r="H29">
+        <v>0.08607311692368735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1300768015697785</v>
+        <v>0.1268383658181421</v>
       </c>
       <c r="C30">
-        <v>-0.1076206529023051</v>
+        <v>-0.04300118451764139</v>
       </c>
       <c r="D30">
-        <v>0.1039493184335254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09402342357110312</v>
+      </c>
+      <c r="E30">
+        <v>-0.05145991362818003</v>
+      </c>
+      <c r="F30">
+        <v>0.01702209040784839</v>
+      </c>
+      <c r="G30">
+        <v>0.07365914606232538</v>
+      </c>
+      <c r="H30">
+        <v>-0.03823101387172643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04853493256773046</v>
+        <v>0.04903970266998957</v>
       </c>
       <c r="C31">
-        <v>-0.02741230210821844</v>
+        <v>-0.003321207681138117</v>
       </c>
       <c r="D31">
-        <v>0.01768820747892237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03666779376435644</v>
+      </c>
+      <c r="E31">
+        <v>-0.02192197097541008</v>
+      </c>
+      <c r="F31">
+        <v>0.01064848579817773</v>
+      </c>
+      <c r="G31">
+        <v>-0.003856120521076942</v>
+      </c>
+      <c r="H31">
+        <v>0.0646123535212656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03468816360200185</v>
+        <v>0.03728237802012688</v>
       </c>
       <c r="C32">
-        <v>-0.02655241479516924</v>
+        <v>-0.01985740333743615</v>
       </c>
       <c r="D32">
-        <v>0.02987526360285052</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01417174269845136</v>
+      </c>
+      <c r="E32">
+        <v>-0.04195767484801072</v>
+      </c>
+      <c r="F32">
+        <v>-0.00131121820697061</v>
+      </c>
+      <c r="G32">
+        <v>0.04916320591874513</v>
+      </c>
+      <c r="H32">
+        <v>0.01150321683961287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0835776694547995</v>
+        <v>0.09369249889312152</v>
       </c>
       <c r="C33">
-        <v>-0.04797036668539351</v>
+        <v>-0.01338505114469429</v>
       </c>
       <c r="D33">
-        <v>0.04673082731285404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05447301630915411</v>
+      </c>
+      <c r="E33">
+        <v>-0.01389933046617966</v>
+      </c>
+      <c r="F33">
+        <v>0.001840420415397783</v>
+      </c>
+      <c r="G33">
+        <v>0.005813702595457237</v>
+      </c>
+      <c r="H33">
+        <v>0.06148152079284006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05760665529170807</v>
+        <v>0.06664316496018417</v>
       </c>
       <c r="C34">
-        <v>-0.02973666849348457</v>
+        <v>-0.003206446209572934</v>
       </c>
       <c r="D34">
-        <v>0.05152315199540006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04818713352561479</v>
+      </c>
+      <c r="E34">
+        <v>-0.01346024879327466</v>
+      </c>
+      <c r="F34">
+        <v>0.01976697115458237</v>
+      </c>
+      <c r="G34">
+        <v>0.02482722505928642</v>
+      </c>
+      <c r="H34">
+        <v>0.05080093583765715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03545296801730385</v>
+        <v>0.03731917163581886</v>
       </c>
       <c r="C35">
-        <v>-0.01552612544952235</v>
+        <v>-0.002911425023426927</v>
       </c>
       <c r="D35">
-        <v>0.01861147738545644</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01937544692477538</v>
+      </c>
+      <c r="E35">
+        <v>-0.02231596793960154</v>
+      </c>
+      <c r="F35">
+        <v>-0.01569993866537418</v>
+      </c>
+      <c r="G35">
+        <v>-0.005034135624536379</v>
+      </c>
+      <c r="H35">
+        <v>0.03488808890178657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02602250995294255</v>
+        <v>0.02794622669488773</v>
       </c>
       <c r="C36">
-        <v>-0.02148637751674984</v>
+        <v>-0.009066099369187683</v>
       </c>
       <c r="D36">
-        <v>0.01915135942960207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02098317733987551</v>
+      </c>
+      <c r="E36">
+        <v>-0.03319823992774076</v>
+      </c>
+      <c r="F36">
+        <v>0.02736387843233725</v>
+      </c>
+      <c r="G36">
+        <v>0.01288141878794631</v>
+      </c>
+      <c r="H36">
+        <v>0.04199564286965285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05101317328005819</v>
+        <v>0.04836701001033644</v>
       </c>
       <c r="C38">
-        <v>-0.01292457947797487</v>
+        <v>0.006557398419265783</v>
       </c>
       <c r="D38">
-        <v>0.004605065880922499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02122864306723766</v>
+      </c>
+      <c r="E38">
+        <v>-0.04952593245796395</v>
+      </c>
+      <c r="F38">
+        <v>-0.0006174938626514431</v>
+      </c>
+      <c r="G38">
+        <v>0.002356225558738409</v>
+      </c>
+      <c r="H38">
+        <v>0.0261789597557901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08921568596840744</v>
+        <v>0.1004381623593064</v>
       </c>
       <c r="C39">
-        <v>-0.07707454264616907</v>
+        <v>-0.03571870892887009</v>
       </c>
       <c r="D39">
-        <v>0.04515206549226519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07277347481229696</v>
+      </c>
+      <c r="E39">
+        <v>-0.003286070666649779</v>
+      </c>
+      <c r="F39">
+        <v>0.003185921985993014</v>
+      </c>
+      <c r="G39">
+        <v>0.04873217888421883</v>
+      </c>
+      <c r="H39">
+        <v>0.02620092910716401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0794641926922497</v>
+        <v>0.0608867098898385</v>
       </c>
       <c r="C40">
-        <v>-0.04223902054431029</v>
+        <v>0.004800249955985941</v>
       </c>
       <c r="D40">
-        <v>0.01108347498535377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03565567548825092</v>
+      </c>
+      <c r="E40">
+        <v>-0.04062288422377142</v>
+      </c>
+      <c r="F40">
+        <v>-0.0371996098463956</v>
+      </c>
+      <c r="G40">
+        <v>0.05910073561774048</v>
+      </c>
+      <c r="H40">
+        <v>-0.07361599579041657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04565611645383996</v>
+        <v>0.04622458605999719</v>
       </c>
       <c r="C41">
-        <v>-0.02082857211386082</v>
+        <v>0.003138878175106948</v>
       </c>
       <c r="D41">
-        <v>0.03334305320744577</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03387392582893613</v>
+      </c>
+      <c r="E41">
+        <v>-0.001879811445779021</v>
+      </c>
+      <c r="F41">
+        <v>-0.01391020911589377</v>
+      </c>
+      <c r="G41">
+        <v>0.005799751665935349</v>
+      </c>
+      <c r="H41">
+        <v>0.03083908630266485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05326270472981402</v>
+        <v>0.05973121144257657</v>
       </c>
       <c r="C43">
-        <v>-0.03298326865516141</v>
+        <v>-0.01179688843618177</v>
       </c>
       <c r="D43">
-        <v>0.007534468256477318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03397395234155189</v>
+      </c>
+      <c r="E43">
+        <v>-0.01840716576700099</v>
+      </c>
+      <c r="F43">
+        <v>0.01341135293959402</v>
+      </c>
+      <c r="G43">
+        <v>-0.01819311019873165</v>
+      </c>
+      <c r="H43">
+        <v>0.06117792506444217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09697625372324986</v>
+        <v>0.0954390740255989</v>
       </c>
       <c r="C44">
-        <v>-0.03647372360640947</v>
+        <v>0.002768139313806993</v>
       </c>
       <c r="D44">
-        <v>0.04897636160060941</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05282697906793959</v>
+      </c>
+      <c r="E44">
+        <v>-0.08149641810370062</v>
+      </c>
+      <c r="F44">
+        <v>0.07989079564074182</v>
+      </c>
+      <c r="G44">
+        <v>0.06583388886837885</v>
+      </c>
+      <c r="H44">
+        <v>0.04720599511659346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02470100298445011</v>
+        <v>0.03777419224813074</v>
       </c>
       <c r="C46">
-        <v>-0.02525821726830173</v>
+        <v>-0.01474377962588952</v>
       </c>
       <c r="D46">
-        <v>0.03109413248566506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03869545921672891</v>
+      </c>
+      <c r="E46">
+        <v>-0.03065166665757555</v>
+      </c>
+      <c r="F46">
+        <v>0.01733588841396317</v>
+      </c>
+      <c r="G46">
+        <v>-0.003348221384467596</v>
+      </c>
+      <c r="H46">
+        <v>0.03893394160818116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03042678683132269</v>
+        <v>0.03980472772580741</v>
       </c>
       <c r="C47">
-        <v>-0.02327866583490995</v>
+        <v>-0.01689298670996293</v>
       </c>
       <c r="D47">
-        <v>-0.003697695083267957</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01428849764576453</v>
+      </c>
+      <c r="E47">
+        <v>-0.04010909032524685</v>
+      </c>
+      <c r="F47">
+        <v>-0.00518586699959275</v>
+      </c>
+      <c r="G47">
+        <v>-0.03208062344126896</v>
+      </c>
+      <c r="H47">
+        <v>0.03353450223539373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03642502213884265</v>
+        <v>0.03973727360302189</v>
       </c>
       <c r="C48">
-        <v>-0.02985357676770737</v>
+        <v>-0.01246477231871491</v>
       </c>
       <c r="D48">
-        <v>0.0271184125149246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0236036343301574</v>
+      </c>
+      <c r="E48">
+        <v>-0.04029805782708485</v>
+      </c>
+      <c r="F48">
+        <v>0.007159379656006019</v>
+      </c>
+      <c r="G48">
+        <v>0.02099889151839857</v>
+      </c>
+      <c r="H48">
+        <v>0.023091599674461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1608356536980137</v>
+        <v>0.1967299732836931</v>
       </c>
       <c r="C49">
-        <v>-0.05557786206992812</v>
+        <v>-0.03174905298828558</v>
       </c>
       <c r="D49">
-        <v>0.004671588664468346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0319405216828761</v>
+      </c>
+      <c r="E49">
+        <v>0.1788368735019377</v>
+      </c>
+      <c r="F49">
+        <v>0.03060588101587297</v>
+      </c>
+      <c r="G49">
+        <v>-0.1384036411712131</v>
+      </c>
+      <c r="H49">
+        <v>-0.2267879585560393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04483878836161041</v>
+        <v>0.0477459130660421</v>
       </c>
       <c r="C50">
-        <v>-0.03083784470672951</v>
+        <v>-0.009226097798633133</v>
       </c>
       <c r="D50">
-        <v>0.02785899808932894</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03814969912076975</v>
+      </c>
+      <c r="E50">
+        <v>-0.02630447030484274</v>
+      </c>
+      <c r="F50">
+        <v>0.00590372982168578</v>
+      </c>
+      <c r="G50">
+        <v>0.001121319817864376</v>
+      </c>
+      <c r="H50">
+        <v>0.07355165874898201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02389877825135136</v>
+        <v>0.03371289758048947</v>
       </c>
       <c r="C51">
-        <v>-0.005701496602175315</v>
+        <v>-0.00426367438915464</v>
       </c>
       <c r="D51">
-        <v>-0.00280493010494275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002041536372382186</v>
+      </c>
+      <c r="E51">
+        <v>-0.007187944798849579</v>
+      </c>
+      <c r="F51">
+        <v>0.01159758271541354</v>
+      </c>
+      <c r="G51">
+        <v>-0.01937695586413836</v>
+      </c>
+      <c r="H51">
+        <v>-0.02081195138132866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1493012400699865</v>
+        <v>0.1600491266565997</v>
       </c>
       <c r="C53">
-        <v>-0.08606038305354254</v>
+        <v>-0.04948885646793898</v>
       </c>
       <c r="D53">
-        <v>-0.01083414680244497</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03235686849709139</v>
+      </c>
+      <c r="E53">
+        <v>0.03478173248042648</v>
+      </c>
+      <c r="F53">
+        <v>0.002371358805639853</v>
+      </c>
+      <c r="G53">
+        <v>-0.006745708758553929</v>
+      </c>
+      <c r="H53">
+        <v>0.1993190884420233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05743945477422509</v>
+        <v>0.05986934588679924</v>
       </c>
       <c r="C54">
-        <v>-0.03480689717568194</v>
+        <v>-0.01976264451114126</v>
       </c>
       <c r="D54">
-        <v>0.01661332679226894</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01690806207714684</v>
+      </c>
+      <c r="E54">
+        <v>-0.05632020916598424</v>
+      </c>
+      <c r="F54">
+        <v>0.01946124169054925</v>
+      </c>
+      <c r="G54">
+        <v>0.05376007566039635</v>
+      </c>
+      <c r="H54">
+        <v>0.04822963775078071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09713919766221726</v>
+        <v>0.1002767236798957</v>
       </c>
       <c r="C55">
-        <v>-0.05610895295738594</v>
+        <v>-0.02491687644147516</v>
       </c>
       <c r="D55">
-        <v>0.006824675685391045</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03405829588108617</v>
+      </c>
+      <c r="E55">
+        <v>0.0055490483106492</v>
+      </c>
+      <c r="F55">
+        <v>0.02156543494076885</v>
+      </c>
+      <c r="G55">
+        <v>0.01322147618086741</v>
+      </c>
+      <c r="H55">
+        <v>0.1539233424137166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1450175006933127</v>
+        <v>0.1536123004870554</v>
       </c>
       <c r="C56">
-        <v>-0.08861534318676641</v>
+        <v>-0.04155793182423149</v>
       </c>
       <c r="D56">
-        <v>-0.005940496485495422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05233568069862024</v>
+      </c>
+      <c r="E56">
+        <v>0.01630528582277708</v>
+      </c>
+      <c r="F56">
+        <v>0.02523153279329058</v>
+      </c>
+      <c r="G56">
+        <v>0.002330696039622651</v>
+      </c>
+      <c r="H56">
+        <v>0.2038272839894536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1321787848245743</v>
+        <v>0.09880285505939683</v>
       </c>
       <c r="C58">
-        <v>0.015480326646929</v>
+        <v>0.07106819729629944</v>
       </c>
       <c r="D58">
-        <v>0.05064300285814562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01577719448852529</v>
+      </c>
+      <c r="E58">
+        <v>-0.1248172689800952</v>
+      </c>
+      <c r="F58">
+        <v>0.03296803100121778</v>
+      </c>
+      <c r="G58">
+        <v>-0.08391575795602055</v>
+      </c>
+      <c r="H58">
+        <v>-0.1870558998471172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1125516256311537</v>
+        <v>0.1459028359251557</v>
       </c>
       <c r="C59">
-        <v>-0.06092529978884144</v>
+        <v>-0.1808364439817105</v>
       </c>
       <c r="D59">
-        <v>-0.412186355981875</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3226692638921549</v>
+      </c>
+      <c r="E59">
+        <v>-0.02550502235536424</v>
+      </c>
+      <c r="F59">
+        <v>0.006515594484030979</v>
+      </c>
+      <c r="G59">
+        <v>0.006540207301588103</v>
+      </c>
+      <c r="H59">
+        <v>0.01789600179310095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2040080916589693</v>
+        <v>0.2368205097026353</v>
       </c>
       <c r="C60">
-        <v>-0.1058001820401343</v>
+        <v>-0.05877253737034104</v>
       </c>
       <c r="D60">
-        <v>-0.001685103575119017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05742799471523669</v>
+      </c>
+      <c r="E60">
+        <v>0.1216109802465478</v>
+      </c>
+      <c r="F60">
+        <v>0.04031063171258149</v>
+      </c>
+      <c r="G60">
+        <v>-0.02376413731742177</v>
+      </c>
+      <c r="H60">
+        <v>-0.156807088173977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07715343557610901</v>
+        <v>0.08487146444732939</v>
       </c>
       <c r="C61">
-        <v>-0.05024846395198231</v>
+        <v>-0.0202724396628608</v>
       </c>
       <c r="D61">
-        <v>0.02980110301571181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04938009570138327</v>
+      </c>
+      <c r="E61">
+        <v>-0.008552979151765863</v>
+      </c>
+      <c r="F61">
+        <v>0.01402634371189232</v>
+      </c>
+      <c r="G61">
+        <v>0.02968971850096052</v>
+      </c>
+      <c r="H61">
+        <v>0.06572308330811086</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1298697805666499</v>
+        <v>0.1359701387196327</v>
       </c>
       <c r="C62">
-        <v>-0.05534100893397603</v>
+        <v>-0.01443067476378104</v>
       </c>
       <c r="D62">
-        <v>-0.007797444299931076</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04440805897538022</v>
+      </c>
+      <c r="E62">
+        <v>0.04193243828498448</v>
+      </c>
+      <c r="F62">
+        <v>-0.02283537154995376</v>
+      </c>
+      <c r="G62">
+        <v>0.02764167971056627</v>
+      </c>
+      <c r="H62">
+        <v>0.1944332448521947</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05031412193070637</v>
+        <v>0.04872062600777392</v>
       </c>
       <c r="C63">
-        <v>-0.02894920999687958</v>
+        <v>-0.009845031737058127</v>
       </c>
       <c r="D63">
-        <v>0.02348708195797968</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02509290566296083</v>
+      </c>
+      <c r="E63">
+        <v>-0.03967974782399612</v>
+      </c>
+      <c r="F63">
+        <v>0.0002503974974595692</v>
+      </c>
+      <c r="G63">
+        <v>0.03717776263432446</v>
+      </c>
+      <c r="H63">
+        <v>0.03457035026333331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1059083521300589</v>
+        <v>0.1104364039585339</v>
       </c>
       <c r="C64">
-        <v>-0.04647571059024867</v>
+        <v>-0.01928406133370478</v>
       </c>
       <c r="D64">
-        <v>0.01602817220123137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02916193480332907</v>
+      </c>
+      <c r="E64">
+        <v>-0.04215240296744927</v>
+      </c>
+      <c r="F64">
+        <v>0.04886358551531504</v>
+      </c>
+      <c r="G64">
+        <v>0.05573933346623291</v>
+      </c>
+      <c r="H64">
+        <v>0.02524804811170977</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1242172842337171</v>
+        <v>0.1307792466453235</v>
       </c>
       <c r="C65">
-        <v>-0.0692249900480873</v>
+        <v>-0.04607739292630257</v>
       </c>
       <c r="D65">
-        <v>0.005164123376817216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01941260410683589</v>
+      </c>
+      <c r="E65">
+        <v>0.000886423406200571</v>
+      </c>
+      <c r="F65">
+        <v>0.02333523227832192</v>
+      </c>
+      <c r="G65">
+        <v>0.06212562698976244</v>
+      </c>
+      <c r="H65">
+        <v>-0.1850847053296232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1475207317855865</v>
+        <v>0.1521590525921775</v>
       </c>
       <c r="C66">
-        <v>-0.09142186217145835</v>
+        <v>-0.02292174776533325</v>
       </c>
       <c r="D66">
-        <v>0.09007861595829719</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1108706266698487</v>
+      </c>
+      <c r="E66">
+        <v>0.02536655331290676</v>
+      </c>
+      <c r="F66">
+        <v>0.005796469188878745</v>
+      </c>
+      <c r="G66">
+        <v>0.07367278377342087</v>
+      </c>
+      <c r="H66">
+        <v>0.09381458252348271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07903912181771239</v>
+        <v>0.08712465946116429</v>
       </c>
       <c r="C67">
-        <v>-0.02037123247842898</v>
+        <v>0.002919503079264551</v>
       </c>
       <c r="D67">
-        <v>0.01391774957004916</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03383715226740287</v>
+      </c>
+      <c r="E67">
+        <v>-0.01910398203595074</v>
+      </c>
+      <c r="F67">
+        <v>0.01601066256852195</v>
+      </c>
+      <c r="G67">
+        <v>-0.01213037861062953</v>
+      </c>
+      <c r="H67">
+        <v>0.02431087566626817</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04756059694940049</v>
+        <v>0.06347442750857785</v>
       </c>
       <c r="C68">
-        <v>-0.03376372573069324</v>
+        <v>-0.1346337332204251</v>
       </c>
       <c r="D68">
-        <v>-0.2632771571492784</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2482749418261015</v>
+      </c>
+      <c r="E68">
+        <v>-0.04412971885670141</v>
+      </c>
+      <c r="F68">
+        <v>0.01105798811437967</v>
+      </c>
+      <c r="G68">
+        <v>-0.0006828819184167985</v>
+      </c>
+      <c r="H68">
+        <v>0.01337914992693002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05395589836110807</v>
+        <v>0.05272359881505717</v>
       </c>
       <c r="C69">
-        <v>-0.02520281291348477</v>
+        <v>-0.003068502312205135</v>
       </c>
       <c r="D69">
-        <v>0.01933193240677573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0222482823858876</v>
+      </c>
+      <c r="E69">
+        <v>-0.02230105504367574</v>
+      </c>
+      <c r="F69">
+        <v>-0.01161734267653384</v>
+      </c>
+      <c r="G69">
+        <v>-0.001117677790105749</v>
+      </c>
+      <c r="H69">
+        <v>0.04780061139074211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.006003132870202661</v>
+        <v>0.0309552505751364</v>
       </c>
       <c r="C70">
-        <v>0.002819934895177394</v>
+        <v>-0.004733155388860613</v>
       </c>
       <c r="D70">
-        <v>-0.009298805172085051</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005424263114390783</v>
+      </c>
+      <c r="E70">
+        <v>0.02275885861881124</v>
+      </c>
+      <c r="F70">
+        <v>-0.007250225264629871</v>
+      </c>
+      <c r="G70">
+        <v>-0.02608228293502431</v>
+      </c>
+      <c r="H70">
+        <v>-0.02879703301180949</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04438229264191343</v>
+        <v>0.06849406292319714</v>
       </c>
       <c r="C71">
-        <v>-0.03190505518066616</v>
+        <v>-0.1488576884505605</v>
       </c>
       <c r="D71">
-        <v>-0.2951651796094293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.270032799157506</v>
+      </c>
+      <c r="E71">
+        <v>-0.03757539802079003</v>
+      </c>
+      <c r="F71">
+        <v>0.04016052935939907</v>
+      </c>
+      <c r="G71">
+        <v>-0.0009940482889453811</v>
+      </c>
+      <c r="H71">
+        <v>0.01302923353699184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1359000918858134</v>
+        <v>0.1416397955056973</v>
       </c>
       <c r="C72">
-        <v>-0.0646382754492658</v>
+        <v>-0.03227391437061466</v>
       </c>
       <c r="D72">
-        <v>-0.0179675583843884</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008754724220320342</v>
+      </c>
+      <c r="E72">
+        <v>0.03684797874169663</v>
+      </c>
+      <c r="F72">
+        <v>-0.1654333068942644</v>
+      </c>
+      <c r="G72">
+        <v>0.1097807088614694</v>
+      </c>
+      <c r="H72">
+        <v>-0.009747649863273096</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2803750233958316</v>
+        <v>0.2837205965764352</v>
       </c>
       <c r="C73">
-        <v>-0.1039417211613676</v>
+        <v>-0.0001456337593146356</v>
       </c>
       <c r="D73">
-        <v>0.03997511918750122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1001584297104484</v>
+      </c>
+      <c r="E73">
+        <v>0.2753924159288089</v>
+      </c>
+      <c r="F73">
+        <v>0.05584761557154368</v>
+      </c>
+      <c r="G73">
+        <v>-0.243561325457216</v>
+      </c>
+      <c r="H73">
+        <v>-0.3992111151048084</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07569163483234559</v>
+        <v>0.08844679566160188</v>
       </c>
       <c r="C74">
-        <v>-0.07532916966984932</v>
+        <v>-0.0435019246550644</v>
       </c>
       <c r="D74">
-        <v>0.0030316543550631</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05244716842711495</v>
+      </c>
+      <c r="E74">
+        <v>0.01071136791440407</v>
+      </c>
+      <c r="F74">
+        <v>0.003523145308812804</v>
+      </c>
+      <c r="G74">
+        <v>-0.03561127799780109</v>
+      </c>
+      <c r="H74">
+        <v>0.1336449429535413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09962819462827981</v>
+        <v>0.101592550607665</v>
       </c>
       <c r="C75">
-        <v>-0.05507089494577975</v>
+        <v>-0.01636156925615205</v>
       </c>
       <c r="D75">
-        <v>0.0006032686110111094</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03081135126143941</v>
+      </c>
+      <c r="E75">
+        <v>0.001948396767493113</v>
+      </c>
+      <c r="F75">
+        <v>0.0008773551888440845</v>
+      </c>
+      <c r="G75">
+        <v>-0.01054189467508101</v>
+      </c>
+      <c r="H75">
+        <v>0.09945009857265945</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.124990982897934</v>
+        <v>0.1372032987617537</v>
       </c>
       <c r="C76">
-        <v>-0.07663779956702536</v>
+        <v>-0.03417421226030952</v>
       </c>
       <c r="D76">
-        <v>0.01946231343089169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06380464004302763</v>
+      </c>
+      <c r="E76">
+        <v>-0.004638807676047995</v>
+      </c>
+      <c r="F76">
+        <v>0.03685728047103418</v>
+      </c>
+      <c r="G76">
+        <v>0.003232230857539941</v>
+      </c>
+      <c r="H76">
+        <v>0.2387915685343495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1161732037142625</v>
+        <v>0.0991915808180427</v>
       </c>
       <c r="C77">
-        <v>-0.04297982057272275</v>
+        <v>0.01077360453552805</v>
       </c>
       <c r="D77">
-        <v>0.07540978156827233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04414768081281358</v>
+      </c>
+      <c r="E77">
+        <v>-0.05839424951326796</v>
+      </c>
+      <c r="F77">
+        <v>0.07233126712832944</v>
+      </c>
+      <c r="G77">
+        <v>0.8098276176828108</v>
+      </c>
+      <c r="H77">
+        <v>-0.2906547813494388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1060301739006165</v>
+        <v>0.1511178070215579</v>
       </c>
       <c r="C78">
-        <v>-0.05092898723172237</v>
+        <v>-0.02801644639159639</v>
       </c>
       <c r="D78">
-        <v>0.08079828754279081</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08596413856206143</v>
+      </c>
+      <c r="E78">
+        <v>-0.0527305277018955</v>
+      </c>
+      <c r="F78">
+        <v>0.05681812188406712</v>
+      </c>
+      <c r="G78">
+        <v>0.03119467939696308</v>
+      </c>
+      <c r="H78">
+        <v>-0.09255376476912926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1373928714850386</v>
+        <v>0.1437228350238847</v>
       </c>
       <c r="C79">
-        <v>-0.07217265070406478</v>
+        <v>-0.02423883671925341</v>
       </c>
       <c r="D79">
-        <v>0.0251733409457472</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05331065065113618</v>
+      </c>
+      <c r="E79">
+        <v>0.01234372351847328</v>
+      </c>
+      <c r="F79">
+        <v>0.01845660090249403</v>
+      </c>
+      <c r="G79">
+        <v>0.01732891807021886</v>
+      </c>
+      <c r="H79">
+        <v>0.1667183172479114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04139787367863437</v>
+        <v>0.04158657891382933</v>
       </c>
       <c r="C80">
-        <v>-0.02478000511516966</v>
+        <v>-0.008654630129040105</v>
       </c>
       <c r="D80">
-        <v>0.02663535505067655</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02000330279056773</v>
+      </c>
+      <c r="E80">
+        <v>0.04353637278777222</v>
+      </c>
+      <c r="F80">
+        <v>0.005452094769724366</v>
+      </c>
+      <c r="G80">
+        <v>-0.0130727930548203</v>
+      </c>
+      <c r="H80">
+        <v>0.03155289439683166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1215501181678567</v>
+        <v>0.1253837275082176</v>
       </c>
       <c r="C81">
-        <v>-0.07706858030150969</v>
+        <v>-0.0345298092102409</v>
       </c>
       <c r="D81">
-        <v>0.01361804846920314</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04018610240684063</v>
+      </c>
+      <c r="E81">
+        <v>0.0005572874476668431</v>
+      </c>
+      <c r="F81">
+        <v>0.0271091569029294</v>
+      </c>
+      <c r="G81">
+        <v>-0.007310655755143697</v>
+      </c>
+      <c r="H81">
+        <v>0.1550831154736923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1274884724961123</v>
+        <v>0.1308519307168646</v>
       </c>
       <c r="C82">
-        <v>-0.07421911327328234</v>
+        <v>-0.0344390423672479</v>
       </c>
       <c r="D82">
-        <v>0.008249672725356608</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04212429450100393</v>
+      </c>
+      <c r="E82">
+        <v>0.02499382389624543</v>
+      </c>
+      <c r="F82">
+        <v>0.04237610509809184</v>
+      </c>
+      <c r="G82">
+        <v>-0.006889538764057354</v>
+      </c>
+      <c r="H82">
+        <v>0.2309968422525567</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06375656223008772</v>
+        <v>0.08073997320069998</v>
       </c>
       <c r="C83">
-        <v>0.01550123267430174</v>
+        <v>0.02937052599508912</v>
       </c>
       <c r="D83">
-        <v>0.02687181591766023</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01736173718471779</v>
+      </c>
+      <c r="E83">
+        <v>-0.01879127624359894</v>
+      </c>
+      <c r="F83">
+        <v>0.03091816632394673</v>
+      </c>
+      <c r="G83">
+        <v>-0.04868149544473126</v>
+      </c>
+      <c r="H83">
+        <v>-0.03662129415879167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03086294634998518</v>
+        <v>0.0348377750259384</v>
       </c>
       <c r="C84">
-        <v>-0.04262129119260281</v>
+        <v>-0.01609549455796033</v>
       </c>
       <c r="D84">
-        <v>0.03093381690197809</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0465569583904363</v>
+      </c>
+      <c r="E84">
+        <v>-0.02012368826941547</v>
+      </c>
+      <c r="F84">
+        <v>-0.03895748149722463</v>
+      </c>
+      <c r="G84">
+        <v>-0.02712252999768571</v>
+      </c>
+      <c r="H84">
+        <v>0.0242955997371529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1157035931539915</v>
+        <v>0.1223000235825888</v>
       </c>
       <c r="C85">
-        <v>-0.04726903415665973</v>
+        <v>-0.009657925279057735</v>
       </c>
       <c r="D85">
-        <v>0.04218668207905437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04407878699282124</v>
+      </c>
+      <c r="E85">
+        <v>-0.009574988264378352</v>
+      </c>
+      <c r="F85">
+        <v>0.04078563473038633</v>
+      </c>
+      <c r="G85">
+        <v>-0.007936745502372035</v>
+      </c>
+      <c r="H85">
+        <v>0.1440339516564391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04929271656426822</v>
+        <v>0.05303529953566455</v>
       </c>
       <c r="C86">
-        <v>-0.02612001274575617</v>
+        <v>0.0008029790836480147</v>
       </c>
       <c r="D86">
-        <v>0.06902653168991857</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04049659010878572</v>
+      </c>
+      <c r="E86">
+        <v>-0.04014439857339627</v>
+      </c>
+      <c r="F86">
+        <v>0.02650928767828786</v>
+      </c>
+      <c r="G86">
+        <v>-0.02829282553776012</v>
+      </c>
+      <c r="H86">
+        <v>-0.05683912569062487</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1202321706475495</v>
+        <v>0.1240610717510643</v>
       </c>
       <c r="C87">
-        <v>-0.0853015376149464</v>
+        <v>-0.02407576375768011</v>
       </c>
       <c r="D87">
-        <v>0.06234858268226837</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07912992438236169</v>
+      </c>
+      <c r="E87">
+        <v>-0.02589060237026689</v>
+      </c>
+      <c r="F87">
+        <v>0.02781797269266861</v>
+      </c>
+      <c r="G87">
+        <v>0.1499142685182842</v>
+      </c>
+      <c r="H87">
+        <v>-0.06057425159168608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05367988020232926</v>
+        <v>0.06306990807101326</v>
       </c>
       <c r="C88">
-        <v>-0.03760840846939665</v>
+        <v>-0.01365288181027341</v>
       </c>
       <c r="D88">
-        <v>0.02547485405057542</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04703393908626088</v>
+      </c>
+      <c r="E88">
+        <v>-0.001242563558499504</v>
+      </c>
+      <c r="F88">
+        <v>0.02323908496423647</v>
+      </c>
+      <c r="G88">
+        <v>0.00968934070815749</v>
+      </c>
+      <c r="H88">
+        <v>0.04934053776507179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07383641019744999</v>
+        <v>0.1079230160458376</v>
       </c>
       <c r="C89">
-        <v>-0.05388346097543633</v>
+        <v>-0.1883228204417817</v>
       </c>
       <c r="D89">
-        <v>-0.3231303551050345</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3130251839978259</v>
+      </c>
+      <c r="E89">
+        <v>-0.04877512390787164</v>
+      </c>
+      <c r="F89">
+        <v>0.07280400477518517</v>
+      </c>
+      <c r="G89">
+        <v>-0.02773172506429814</v>
+      </c>
+      <c r="H89">
+        <v>0.02755806977252934</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05750836158694562</v>
+        <v>0.08178519960479413</v>
       </c>
       <c r="C90">
-        <v>-0.03825225571746015</v>
+        <v>-0.1451200927022503</v>
       </c>
       <c r="D90">
-        <v>-0.2808141988329346</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.258409626881731</v>
+      </c>
+      <c r="E90">
+        <v>-0.05134821647864869</v>
+      </c>
+      <c r="F90">
+        <v>0.02903846654062491</v>
+      </c>
+      <c r="G90">
+        <v>0.0344221955006702</v>
+      </c>
+      <c r="H90">
+        <v>-0.01873175965875881</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08959077416125337</v>
+        <v>0.0896407303563192</v>
       </c>
       <c r="C91">
-        <v>-0.05945445389065648</v>
+        <v>-0.02070000555644875</v>
       </c>
       <c r="D91">
-        <v>0.005871736068516945</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03906113174729535</v>
+      </c>
+      <c r="E91">
+        <v>4.403119115807928e-05</v>
+      </c>
+      <c r="F91">
+        <v>0.007338216307281653</v>
+      </c>
+      <c r="G91">
+        <v>-0.0205459017501098</v>
+      </c>
+      <c r="H91">
+        <v>0.09066088640495532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05859214131749908</v>
+        <v>0.08153956106289591</v>
       </c>
       <c r="C92">
-        <v>-0.04635202175375783</v>
+        <v>-0.1678628805817643</v>
       </c>
       <c r="D92">
-        <v>-0.3327831079380184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2970185661016538</v>
+      </c>
+      <c r="E92">
+        <v>-0.0433107285129573</v>
+      </c>
+      <c r="F92">
+        <v>0.03864090063196814</v>
+      </c>
+      <c r="G92">
+        <v>0.003814614103131084</v>
+      </c>
+      <c r="H92">
+        <v>0.02244706949103402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05095199464105694</v>
+        <v>0.07912960908929323</v>
       </c>
       <c r="C93">
-        <v>-0.04463148154152486</v>
+        <v>-0.1630670228070682</v>
       </c>
       <c r="D93">
-        <v>-0.3073383740888187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2717943198609901</v>
+      </c>
+      <c r="E93">
+        <v>-0.01659666396730792</v>
+      </c>
+      <c r="F93">
+        <v>0.03005261764612678</v>
+      </c>
+      <c r="G93">
+        <v>0.01890801335781294</v>
+      </c>
+      <c r="H93">
+        <v>0.005899105245024697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1270694862903795</v>
+        <v>0.125404664998607</v>
       </c>
       <c r="C94">
-        <v>-0.04407685462826592</v>
+        <v>0.003303655788385144</v>
       </c>
       <c r="D94">
-        <v>0.04221243294570343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0475859063371796</v>
+      </c>
+      <c r="E94">
+        <v>0.02357128188498116</v>
+      </c>
+      <c r="F94">
+        <v>0.02031919618852509</v>
+      </c>
+      <c r="G94">
+        <v>-0.03951312575004393</v>
+      </c>
+      <c r="H94">
+        <v>0.1046940220947668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1175513377605104</v>
+        <v>0.1294332923038788</v>
       </c>
       <c r="C95">
-        <v>-0.03695400606695883</v>
+        <v>0.005441660787033144</v>
       </c>
       <c r="D95">
-        <v>0.05881846085525747</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06211599106948083</v>
+      </c>
+      <c r="E95">
+        <v>-0.01052831936984716</v>
+      </c>
+      <c r="F95">
+        <v>0.0518390867202435</v>
+      </c>
+      <c r="G95">
+        <v>0.04816528668694094</v>
+      </c>
+      <c r="H95">
+        <v>-0.09182339084210958</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2241374352313717</v>
+        <v>0.194613584374672</v>
       </c>
       <c r="C97">
-        <v>-0.05853856316262462</v>
+        <v>0.0002372275132713262</v>
       </c>
       <c r="D97">
-        <v>-0.1276970060652243</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.06035303887108572</v>
+      </c>
+      <c r="E97">
+        <v>0.02135459653144437</v>
+      </c>
+      <c r="F97">
+        <v>-0.9380568240784397</v>
+      </c>
+      <c r="G97">
+        <v>0.05802498805114932</v>
+      </c>
+      <c r="H97">
+        <v>-0.007248859178887254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2400448483460306</v>
+        <v>0.2741227614247965</v>
       </c>
       <c r="C98">
-        <v>-0.07174677171810158</v>
+        <v>-0.01884591801549974</v>
       </c>
       <c r="D98">
-        <v>0.009466157136328399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04645866413511521</v>
+      </c>
+      <c r="E98">
+        <v>0.2133538874099909</v>
+      </c>
+      <c r="F98">
+        <v>0.03265450006216099</v>
+      </c>
+      <c r="G98">
+        <v>-0.284953941230816</v>
+      </c>
+      <c r="H98">
+        <v>-0.1774719814735738</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4516894344675652</v>
+        <v>0.2851575668992757</v>
       </c>
       <c r="C99">
-        <v>0.8755079876851134</v>
+        <v>0.857879558495188</v>
       </c>
       <c r="D99">
-        <v>-0.009414631595438192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.3817451514734597</v>
+      </c>
+      <c r="E99">
+        <v>-0.0715924024494811</v>
+      </c>
+      <c r="F99">
+        <v>0.07849060364040859</v>
+      </c>
+      <c r="G99">
+        <v>0.01020734084866694</v>
+      </c>
+      <c r="H99">
+        <v>0.06578796678074234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04384316654375593</v>
+        <v>0.04833187084099477</v>
       </c>
       <c r="C101">
-        <v>-0.04174944812802749</v>
+        <v>-0.02832360445641419</v>
       </c>
       <c r="D101">
-        <v>-0.002781372612187315</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02000913341708643</v>
+      </c>
+      <c r="E101">
+        <v>-0.05300098916707735</v>
+      </c>
+      <c r="F101">
+        <v>0.01929099599260601</v>
+      </c>
+      <c r="G101">
+        <v>0.001454531814209362</v>
+      </c>
+      <c r="H101">
+        <v>0.0847629426471615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
